--- a/biology/Botanique/Borasseae/Borasseae.xlsx
+++ b/biology/Botanique/Borasseae/Borasseae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Borasseae sont une tribu de la sous-famille de palmiers  Coryphoideae. La tribu s'étend de l' Afrique australe et au nord de Madagascar à travers  la péninsule arabique jusqu'à l' Inde, l' Indochine, l' Indonésie et la Nouvelle-Guinée . Plusieurs genres sont limités aux îles de l' océan Indien . Les deux plus grands genres, Hyphaene et Borassus, sont aussi les plus répandus[2].
+Les Borasseae sont une tribu de la sous-famille de palmiers  Coryphoideae. La tribu s'étend de l' Afrique australe et au nord de Madagascar à travers  la péninsule arabique jusqu'à l' Inde, l' Indochine, l' Indonésie et la Nouvelle-Guinée . Plusieurs genres sont limités aux îles de l' océan Indien . Les deux plus grands genres, Hyphaene et Borassus, sont aussi les plus répandus.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les palmiers borasoïdes ont généralement des stipes imposants  en forme de colonne, bien que plusieurs espèces d' hyphaene aient des tiges ramifiées ou groupées. Les feuilles sont grandes, palmées et souvent avec des épines ou des bords tranchants le long des pétioles . Les feuilles sont retenues sur les jeunes tiges de palmier, tombant plus tard pour révéler des cicatrices proéminentes. Tous les genres des Borasseae sont dioïques, avec des arbres mâles et femelles séparés ; ils sont pléonanthiques , ils fleurissent régulièrement pendant de nombreuses années. Les inflorescences sont grandes et pendantes; les fleurs mâles sont beaucoup plus petites que les fleurs femelles et sont portées en grappes dans des structures ressemblant à des chatons. Les fruits contiennent des endocarpes durs et ligneux entourant les graines; leur taille varie de la taille d'une datte ( Latania ) aux fruits massifs de Lodoicea, qui contiennent la plus grosse graine du monde[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les palmiers borasoïdes ont généralement des stipes imposants  en forme de colonne, bien que plusieurs espèces d' hyphaene aient des tiges ramifiées ou groupées. Les feuilles sont grandes, palmées et souvent avec des épines ou des bords tranchants le long des pétioles . Les feuilles sont retenues sur les jeunes tiges de palmier, tombant plus tard pour révéler des cicatrices proéminentes. Tous les genres des Borasseae sont dioïques, avec des arbres mâles et femelles séparés ; ils sont pléonanthiques , ils fleurissent régulièrement pendant de nombreuses années. Les inflorescences sont grandes et pendantes; les fleurs mâles sont beaucoup plus petites que les fleurs femelles et sont portées en grappes dans des structures ressemblant à des chatons. Les fruits contiennent des endocarpes durs et ligneux entourant les graines; leur taille varie de la taille d'une datte ( Latania ) aux fruits massifs de Lodoicea, qui contiennent la plus grosse graine du monde.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Famille des  Arecaceae
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Famille des  Arecaceae
 Sous-famille des Coryphoideae 
-Tribu des Borasseae [1], [5]</t>
+Tribu des Borasseae , </t>
         </is>
       </c>
     </row>
@@ -575,12 +591,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Borasseae sont l'une des huit tribus de la sous-famille des Coryphoideae[6]. La tribu est monophylétique et la plupart des études phylogénétiques la place comme tribu sœur de la tribu Corypheae, bien qu'elle soit également proche de la tribu Caryoteae et de la tribu Chuniophoeniceae[4],[6] . Ensemble, les quatre tribus forment le clade  syncarpe, dont tous les membres ont des ovaires syncarpes à carpelles unis[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Borasseae sont l'une des huit tribus de la sous-famille des Coryphoideae. La tribu est monophylétique et la plupart des études phylogénétiques la place comme tribu sœur de la tribu Corypheae, bien qu'elle soit également proche de la tribu Caryoteae et de la tribu Chuniophoeniceae, . Ensemble, les quatre tribus forment le clade  syncarpe, dont tous les membres ont des ovaires syncarpes à carpelles unis.
 Les huit genres de la tribu Borasseae se divisent également en deux sous-tribus.
-Dans les palmiers de la sous-tribu Hyphaeninae, les fleurs mâles et femelles sont enfoncées dans des noyaux et les fruits sont pédonculés et généralement à une seule graine[2]. Bismarckia (1 sp., B. nobilis ) et Satranala (1 sp., S. decussilvae ) sont endémiques à Madagascar, Medemia (1 sp., M. argun ) est très limitée entre le sud de l' Égypte et le nord du Soudan, tandis que Hyphaene (8 spp.) [7] s'étend de l'Afrique australe et de Madagascar à l'ouest de  l'Inde.
-Dans la sous-tribu Lataniinae, seules les fleurs mâles sont enfoncées dans des noyaux et les fruits sont sessiles, avec 1 à 3 graines[2]. Lodoicea (1 sp., L. maldivica ) est endémique des Seychelles, Latania (3 spp.) est endémique des îles Mascareignes, tandis que Borassodendron a deux espèces, une à Bornéo ( B. borneense ) et une dans la péninsule malaise ( B. machadonis ). Le dernier des genres, Borassus (5 spp.)[8], est le plus répandu et se rencontre en Afrique subsaharienne, à Madagascar, en Asie du Sud-Est et en Nouvelle-Guinée[8]. Un genre éteint de la sous-tribu Hyphaeninae est connu des lits intertrappéens d'âge Maastrichtien  en Inde[9].
+Dans les palmiers de la sous-tribu Hyphaeninae, les fleurs mâles et femelles sont enfoncées dans des noyaux et les fruits sont pédonculés et généralement à une seule graine. Bismarckia (1 sp., B. nobilis ) et Satranala (1 sp., S. decussilvae ) sont endémiques à Madagascar, Medemia (1 sp., M. argun ) est très limitée entre le sud de l' Égypte et le nord du Soudan, tandis que Hyphaene (8 spp.)  s'étend de l'Afrique australe et de Madagascar à l'ouest de  l'Inde.
+Dans la sous-tribu Lataniinae, seules les fleurs mâles sont enfoncées dans des noyaux et les fruits sont sessiles, avec 1 à 3 graines. Lodoicea (1 sp., L. maldivica ) est endémique des Seychelles, Latania (3 spp.) est endémique des îles Mascareignes, tandis que Borassodendron a deux espèces, une à Bornéo ( B. borneense ) et une dans la péninsule malaise ( B. machadonis ). Le dernier des genres, Borassus (5 spp.), est le plus répandu et se rencontre en Afrique subsaharienne, à Madagascar, en Asie du Sud-Est et en Nouvelle-Guinée. Un genre éteint de la sous-tribu Hyphaeninae est connu des lits intertrappéens d'âge Maastrichtien  en Inde.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Préservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>De nombreuses espèces de la tribu Borasseae sont menacées d'extinction (36% du total des espèces reconnues)[10],[11]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>De nombreuses espèces de la tribu Borasseae sont menacées d'extinction (36% du total des espèces reconnues),:
 Borassodendron machadonis - Vulnérable
 Borassus madagascariensis - En voie de disparition
 Latania loddigesii - En voie de disparition
